--- a/src/assets/imgs/customer-upload.xlsx
+++ b/src/assets/imgs/customer-upload.xlsx
@@ -1,40 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
     <sheet name="Customer Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Aadhar</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>6263626505</t>
+  </si>
+  <si>
+    <t>customer@example.com</t>
+  </si>
+  <si>
+    <t>1234-5678-9101</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>johnlogin</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Pending Amount</t>
+  </si>
+  <si>
+    <t>Loan Amount</t>
+  </si>
+  <si>
+    <t>Join Date</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -399,68 +444,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Mobile</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Aadhar</v>
-      </c>
-      <c r="E1" t="str">
-        <v>JoinDate</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Login</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Password</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Address</v>
-      </c>
-      <c r="I1" t="str">
-        <v>LoanAmount</v>
-      </c>
-      <c r="J1" t="str">
-        <v>PendingAmount</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Status</v>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Customer Name</v>
-      </c>
-      <c r="B2" t="str">
-        <v>6263626505</v>
-      </c>
-      <c r="C2" t="str">
-        <v>customer@example.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>1234-5678-9101</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2021-05-01</v>
-      </c>
-      <c r="F2" t="str">
-        <v>johnlogin</v>
-      </c>
-      <c r="G2" t="str">
-        <v>*****</v>
-      </c>
-      <c r="H2" t="str">
-        <v>123 Main St</v>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
       <c r="I2">
         <v>5000</v>
@@ -468,13 +526,14 @@
       <c r="J2">
         <v>2000</v>
       </c>
-      <c r="K2" t="str">
-        <v>Active</v>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError sqref="A2:K2 A1:D1 K1 F1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>